--- a/model/datasets/Dengue_EastVis_Fct.xlsx
+++ b/model/datasets/Dengue_EastVis_Fct.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cirrolytix\Documents\GitHub\nasa_hack\nasa_hack\model\datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fct" sheetId="1" r:id="rId1"/>
-    <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Model" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="36">
   <si>
     <t>MTD_Cases</t>
   </si>
@@ -106,15 +112,33 @@
   <si>
     <t>[0.05784943035148538, 0.011678269439319633, 0.0017556090355919842, 0.03760834453325931]</t>
   </si>
+  <si>
+    <t>Actual Cases</t>
+  </si>
+  <si>
+    <t>Model 1</t>
+  </si>
+  <si>
+    <t>Model 2</t>
+  </si>
+  <si>
+    <t>Model 3</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -174,13 +198,1603 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fct!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTD_Cases</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Fct!$B$2:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1919</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>262.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1053.125</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>374.58333333333343</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6DBD-49F6-85CF-807F4058ABAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fct!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTD_Cases_Fct_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Fct!$J$2:$J$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="4">
+                  <c:v>-41.083250586633547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98.320892253878071</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>368.9153098011206</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-15.745744068532289</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>136.09004235224239</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>416.07358505100899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>430.184632747178</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>357.37166536316948</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89.802116159190263</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>301.42807046281342</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>309.92199406912113</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>564.29586873736378</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64.414879954859998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>542.90561684275644</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>504.17696786878253</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>660.78383076182376</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>498.22610383249628</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1153.60619250025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2393.1461760108091</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>199.1376526881871</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>284.68461467943803</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>272.07733449810348</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>729.0112353725599</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>496.48555722474299</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>171.894393691435</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>432.5563517602011</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>792.8404205327123</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>324.390602715022</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>283.87868678613029</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1197.242084664987</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>444.75633012279337</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>398.09523336584618</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>343.22665553055151</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>225.0610310826321</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>445.06890165296647</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>337.60454677881728</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>176.90419281280691</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>682.86738590606149</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>868.75194184917348</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>548.90825745010716</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-174.65742805371951</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3740.8885208837451</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>497.82606556016668</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1564.907432881158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6DBD-49F6-85CF-807F4058ABAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fct!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTD_Cases_Fct_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Fct!$K$2:$K$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="4">
+                  <c:v>-48.788728109351347</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98.512268527236216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>366.4102365034646</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8034725473652651</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>129.00405516243239</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>420.55336132614627</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>176.2434897907369</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>355.74745947587928</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94.957214237982598</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>313.82694250201757</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>320.87318389120338</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>568.8988256887817</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.5615494723728984</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>539.3172344896609</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>512.19739657434366</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>675.84651469449295</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>524.73494326989066</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1142.219940706746</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1310.673160758651</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>206.4286630514444</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>305.7145673858447</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>265.43361387389427</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>773.59111206968964</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>500.49111690810162</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>153.6701598753165</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>434.27136480627138</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>785.10732551096589</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>327.33156922071282</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>297.7820240857925</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1195.410614410265</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>254.96959444101219</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>407.93911854627049</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>338.2041588366377</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>240.051151878208</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>465.85980254418121</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>331.26093283179438</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>161.21347699276319</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>691.62480771954768</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>873.50866178948445</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>557.73666641843954</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-330.7008814962565</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3781.3294666621882</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>293.04084652955368</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1579.532299938071</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6DBD-49F6-85CF-807F4058ABAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fct!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTD_Cases_Fct_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Fct!$L$2:$L$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="4">
+                  <c:v>5.9906635372675074</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.555926823370342</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>382.20834102487601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-58.340146789749703</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>215.08866336993091</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>395.15534142138989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>352.25092032577118</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>357.62859736187801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66.948931387292461</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235.81222277387829</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>259.03832099994099</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>525.70828397774153</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>429.64519019699389</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>565.5321238589197</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>467.92860131662229</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>617.82100676594166</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>760.15880331229175</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1205.4260120984959</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1922.573722222344</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>159.68503199122739</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>191.61683059510909</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>302.87573620557151</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>505.55238260892372</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>471.37649470372207</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>264.97016779432357</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>431.21168623259109</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>823.90834440162109</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>317.72523652152239</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>468.29559388533818</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1207.1848905906941</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>386.10334080455698</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>352.50761646634572</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>371.12897110661538</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>153.50430852270119</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>341.68824735186109</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>366.29498147238871</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>250.0792343241875</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>653.51347150869367</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>847.96673508838637</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>508.36789890507703</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1683.8572552715159</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3516.2134246666619</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>374.58333333333343</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1531.605836362563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6DBD-49F6-85CF-807F4058ABAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="450666832"/>
+        <c:axId val="450668080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="450666832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450668080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="450668080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450666832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -226,7 +1840,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,9 +1872,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,6 +1907,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -467,14 +2083,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:L49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -512,7 +2130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42035</v>
       </c>
@@ -538,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.02142857142857143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>2.1428571428571429E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42063</v>
       </c>
@@ -570,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42094</v>
       </c>
@@ -584,7 +2202,7 @@
         <v>27.12</v>
       </c>
       <c r="E4">
-        <v>70.70000000000002</v>
+        <v>70.700000000000017</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -599,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42124</v>
       </c>
@@ -613,7 +2231,7 @@
         <v>28.2</v>
       </c>
       <c r="E5">
-        <v>71.17999999999999</v>
+        <v>71.179999999999993</v>
       </c>
       <c r="F5">
         <v>0.25</v>
@@ -628,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42155</v>
       </c>
@@ -657,16 +2275,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>-41.08325058663355</v>
+        <v>-41.083250586633547</v>
       </c>
       <c r="K6">
-        <v>-48.78872810935135</v>
+        <v>-48.788728109351347</v>
       </c>
       <c r="L6">
-        <v>5.990663537267507</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>5.9906635372675074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42185</v>
       </c>
@@ -680,7 +2298,7 @@
         <v>28.44</v>
       </c>
       <c r="E7">
-        <v>297.4</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -695,16 +2313,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>98.32089225387807</v>
+        <v>98.320892253878071</v>
       </c>
       <c r="K7">
-        <v>98.51226852723622</v>
+        <v>98.512268527236216</v>
       </c>
       <c r="L7">
-        <v>95.55592682337034</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>95.555926823370342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>42216</v>
       </c>
@@ -715,22 +2333,22 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>28.43333333333334</v>
+        <v>28.433333333333341</v>
       </c>
       <c r="E8">
         <v>156.34</v>
       </c>
       <c r="F8">
-        <v>0.3225</v>
+        <v>0.32250000000000001</v>
       </c>
       <c r="G8">
-        <v>0.235</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.003448275862068965</v>
+        <v>3.448275862068965E-3</v>
       </c>
       <c r="J8">
         <v>368.9153098011206</v>
@@ -739,10 +2357,10 @@
         <v>366.4102365034646</v>
       </c>
       <c r="L8">
-        <v>382.208341024876</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>382.20834102487601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42247</v>
       </c>
@@ -759,7 +2377,7 @@
         <v>150.84</v>
       </c>
       <c r="F9">
-        <v>0.066</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,16 +2389,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-15.74574406853229</v>
+        <v>-15.745744068532289</v>
       </c>
       <c r="K9">
-        <v>1.803472547365265</v>
+        <v>1.8034725473652651</v>
       </c>
       <c r="L9">
-        <v>-58.3401467897497</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>-58.340146789749703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42277</v>
       </c>
@@ -809,16 +2427,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>136.0900423522424</v>
+        <v>136.09004235224239</v>
       </c>
       <c r="K10">
-        <v>129.0040551624324</v>
+        <v>129.00405516243239</v>
       </c>
       <c r="L10">
-        <v>215.0886633699309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>215.08866336993091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>42308</v>
       </c>
@@ -835,7 +2453,7 @@
         <v>155.54</v>
       </c>
       <c r="F11">
-        <v>0.145</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="G11">
         <v>0.25</v>
@@ -847,16 +2465,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>416.073585051009</v>
+        <v>416.07358505100899</v>
       </c>
       <c r="K11">
-        <v>420.5533613261463</v>
+        <v>420.55336132614627</v>
       </c>
       <c r="L11">
-        <v>395.1553414213899</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>395.15534142138989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42338</v>
       </c>
@@ -873,7 +2491,7 @@
         <v>229.8</v>
       </c>
       <c r="F12">
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -882,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.003389830508474576</v>
+        <v>3.3898305084745762E-3</v>
       </c>
       <c r="J12">
         <v>430.184632747178</v>
@@ -891,10 +2509,10 @@
         <v>176.2434897907369</v>
       </c>
       <c r="L12">
-        <v>352.2509203257712</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>352.25092032577118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42369</v>
       </c>
@@ -911,7 +2529,7 @@
         <v>347.08</v>
       </c>
       <c r="F13">
-        <v>0.1425</v>
+        <v>0.14249999999999999</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -923,16 +2541,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>357.3716653631695</v>
+        <v>357.37166536316948</v>
       </c>
       <c r="K13">
-        <v>355.7474594758793</v>
+        <v>355.74745947587928</v>
       </c>
       <c r="L13">
-        <v>357.628597361878</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>357.62859736187801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42400</v>
       </c>
@@ -949,28 +2567,28 @@
         <v>221.62</v>
       </c>
       <c r="F14">
-        <v>0.076</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="G14">
-        <v>0.146</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="H14">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I14">
-        <v>0.005291005291005291</v>
+        <v>5.2910052910052907E-3</v>
       </c>
       <c r="J14">
-        <v>89.80211615919026</v>
+        <v>89.802116159190263</v>
       </c>
       <c r="K14">
-        <v>94.9572142379826</v>
+        <v>94.957214237982598</v>
       </c>
       <c r="L14">
-        <v>66.94893138729246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>66.948931387292461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>42429</v>
       </c>
@@ -987,28 +2605,28 @@
         <v>201.48</v>
       </c>
       <c r="F15">
-        <v>0.0925</v>
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="G15">
         <v>0.155</v>
       </c>
       <c r="H15">
-        <v>0.1425</v>
+        <v>0.14249999999999999</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>301.4280704628134</v>
+        <v>301.42807046281342</v>
       </c>
       <c r="K15">
-        <v>313.8269425020176</v>
+        <v>313.82694250201757</v>
       </c>
       <c r="L15">
-        <v>235.8122227738783</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>235.81222277387829</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>42460</v>
       </c>
@@ -1022,31 +2640,31 @@
         <v>27.76</v>
       </c>
       <c r="E16">
-        <v>37.638</v>
+        <v>37.637999999999998</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0775</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.005115089514066497</v>
+        <v>5.1150895140664966E-3</v>
       </c>
       <c r="J16">
-        <v>309.9219940691211</v>
+        <v>309.92199406912113</v>
       </c>
       <c r="K16">
-        <v>320.8731838912034</v>
+        <v>320.87318389120338</v>
       </c>
       <c r="L16">
-        <v>259.038320999941</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>259.03832099994099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>42490</v>
       </c>
@@ -1066,25 +2684,25 @@
         <v>0.08</v>
       </c>
       <c r="G17">
-        <v>0.0475</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.00326797385620915</v>
+        <v>3.26797385620915E-3</v>
       </c>
       <c r="J17">
-        <v>564.2958687373638</v>
+        <v>564.29586873736378</v>
       </c>
       <c r="K17">
         <v>568.8988256887817</v>
       </c>
       <c r="L17">
-        <v>525.7082839777415</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>525.70828397774153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>42521</v>
       </c>
@@ -1101,7 +2719,7 @@
         <v>129.5</v>
       </c>
       <c r="F18">
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1110,19 +2728,19 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.005076142131979695</v>
+        <v>5.076142131979695E-3</v>
       </c>
       <c r="J18">
-        <v>64.41487995486</v>
+        <v>64.414879954859998</v>
       </c>
       <c r="K18">
-        <v>-6.561549472372898</v>
+        <v>-6.5615494723728984</v>
       </c>
       <c r="L18">
-        <v>429.6451901969939</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>429.64519019699389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>42551</v>
       </c>
@@ -1139,7 +2757,7 @@
         <v>183.64</v>
       </c>
       <c r="F19">
-        <v>0.0575</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1148,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.004950495049504951</v>
+        <v>4.9504950495049514E-3</v>
       </c>
       <c r="J19">
-        <v>542.9056168427564</v>
+        <v>542.90561684275644</v>
       </c>
       <c r="K19">
         <v>539.3172344896609</v>
@@ -1160,7 +2778,7 @@
         <v>565.5321238589197</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42582</v>
       </c>
@@ -1177,7 +2795,7 @@
         <v>369.14</v>
       </c>
       <c r="F20">
-        <v>0.134</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1186,19 +2804,19 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.008101851851851851</v>
+        <v>8.1018518518518514E-3</v>
       </c>
       <c r="J20">
-        <v>504.1769678687825</v>
+        <v>504.17696786878253</v>
       </c>
       <c r="K20">
-        <v>512.1973965743437</v>
+        <v>512.19739657434366</v>
       </c>
       <c r="L20">
-        <v>467.9286013166223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>467.92860131662229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>42613</v>
       </c>
@@ -1218,25 +2836,25 @@
         <v>0.13</v>
       </c>
       <c r="G21">
-        <v>0.1775</v>
+        <v>0.17749999999999999</v>
       </c>
       <c r="H21">
         <v>0.17</v>
       </c>
       <c r="I21">
-        <v>0.006675567423230975</v>
+        <v>6.6755674232309749E-3</v>
       </c>
       <c r="J21">
-        <v>660.7838307618238</v>
+        <v>660.78383076182376</v>
       </c>
       <c r="K21">
-        <v>675.846514694493</v>
+        <v>675.84651469449295</v>
       </c>
       <c r="L21">
-        <v>617.8210067659417</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>617.82100676594166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>42643</v>
       </c>
@@ -1256,25 +2874,25 @@
         <v>0.1225</v>
       </c>
       <c r="G22">
-        <v>0.08749999999999999</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="H22">
-        <v>0.1625</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="I22">
-        <v>0.01055408970976253</v>
+        <v>1.0554089709762529E-2</v>
       </c>
       <c r="J22">
-        <v>498.2261038324963</v>
+        <v>498.22610383249628</v>
       </c>
       <c r="K22">
-        <v>524.7349432698907</v>
+        <v>524.73494326989066</v>
       </c>
       <c r="L22">
-        <v>760.1588033122918</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>760.15880331229175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>42674</v>
       </c>
@@ -1294,13 +2912,13 @@
         <v>0.122</v>
       </c>
       <c r="G23">
-        <v>0.07400000000000001</v>
+        <v>7.400000000000001E-2</v>
       </c>
       <c r="H23">
-        <v>0.134</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="I23">
-        <v>0.002605523710265764</v>
+        <v>2.605523710265764E-3</v>
       </c>
       <c r="J23">
         <v>1153.60619250025</v>
@@ -1309,10 +2927,10 @@
         <v>1142.219940706746</v>
       </c>
       <c r="L23">
-        <v>1205.426012098496</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1205.4260120984959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>42704</v>
       </c>
@@ -1326,13 +2944,13 @@
         <v>27.19</v>
       </c>
       <c r="E24">
-        <v>469.895</v>
+        <v>469.89499999999998</v>
       </c>
       <c r="F24">
-        <v>0.0475</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="G24">
-        <v>0.0775</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2393.146176010809</v>
+        <v>2393.1461760108091</v>
       </c>
       <c r="K24">
         <v>1310.673160758651</v>
@@ -1350,7 +2968,7 @@
         <v>1922.573722222344</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>42735</v>
       </c>
@@ -1370,13 +2988,13 @@
         <v>0.12</v>
       </c>
       <c r="G25">
-        <v>0.08749999999999999</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="H25">
-        <v>0.135</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="I25">
-        <v>0.002380952380952381</v>
+        <v>2.3809523809523812E-3</v>
       </c>
       <c r="J25">
         <v>199.1376526881871</v>
@@ -1385,10 +3003,10 @@
         <v>206.4286630514444</v>
       </c>
       <c r="L25">
-        <v>159.6850319912274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>159.68503199122739</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>42766</v>
       </c>
@@ -1402,7 +3020,7 @@
         <v>26.42</v>
       </c>
       <c r="E26">
-        <v>556.6200000000001</v>
+        <v>556.62000000000012</v>
       </c>
       <c r="F26">
         <v>0.11</v>
@@ -1414,19 +3032,19 @@
         <v>0.106</v>
       </c>
       <c r="I26">
-        <v>0.003424657534246575</v>
+        <v>3.4246575342465752E-3</v>
       </c>
       <c r="J26">
-        <v>284.684614679438</v>
+        <v>284.68461467943803</v>
       </c>
       <c r="K26">
         <v>305.7145673858447</v>
       </c>
       <c r="L26">
-        <v>191.6168305951091</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>191.61683059510909</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42794</v>
       </c>
@@ -1443,28 +3061,28 @@
         <v>161.4</v>
       </c>
       <c r="F27">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G27">
-        <v>0.1375</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0.006818181818181818</v>
+        <v>6.8181818181818179E-3</v>
       </c>
       <c r="J27">
-        <v>272.0773344981035</v>
+        <v>272.07733449810348</v>
       </c>
       <c r="K27">
-        <v>265.4336138738943</v>
+        <v>265.43361387389427</v>
       </c>
       <c r="L27">
-        <v>302.8757362055715</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>302.87573620557151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>42825</v>
       </c>
@@ -1484,25 +3102,25 @@
         <v>0.04</v>
       </c>
       <c r="G28">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H28">
-        <v>0.0575</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="I28">
-        <v>0.002358490566037736</v>
+        <v>2.3584905660377362E-3</v>
       </c>
       <c r="J28">
         <v>729.0112353725599</v>
       </c>
       <c r="K28">
-        <v>773.5911120696896</v>
+        <v>773.59111206968964</v>
       </c>
       <c r="L28">
-        <v>505.5523826089237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>505.55238260892372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>42855</v>
       </c>
@@ -1519,7 +3137,7 @@
         <v>213.66</v>
       </c>
       <c r="F29">
-        <v>0.076</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="G29">
         <v>0.114</v>
@@ -1528,19 +3146,19 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0.00326797385620915</v>
+        <v>3.26797385620915E-3</v>
       </c>
       <c r="J29">
-        <v>496.485557224743</v>
+        <v>496.48555722474299</v>
       </c>
       <c r="K29">
-        <v>500.4911169081016</v>
+        <v>500.49111690810162</v>
       </c>
       <c r="L29">
-        <v>471.3764947037221</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>471.37649470372207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>42886</v>
       </c>
@@ -1560,13 +3178,13 @@
         <v>0.08</v>
       </c>
       <c r="G30">
-        <v>0.1425</v>
+        <v>0.14249999999999999</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0.006329113924050633</v>
+        <v>6.3291139240506328E-3</v>
       </c>
       <c r="J30">
         <v>171.894393691435</v>
@@ -1575,10 +3193,10 @@
         <v>153.6701598753165</v>
       </c>
       <c r="L30">
-        <v>264.9701677943236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>264.97016779432357</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>42916</v>
       </c>
@@ -1604,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0.003134796238244514</v>
+        <v>3.134796238244514E-3</v>
       </c>
       <c r="J31">
         <v>432.5563517602011</v>
       </c>
       <c r="K31">
-        <v>434.2713648062714</v>
+        <v>434.27136480627138</v>
       </c>
       <c r="L31">
-        <v>431.2116862325911</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>431.21168623259109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>42947</v>
       </c>
@@ -1633,7 +3251,7 @@
         <v>320.12</v>
       </c>
       <c r="F32">
-        <v>0.064</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1642,19 +3260,19 @@
         <v>0.05</v>
       </c>
       <c r="I32">
-        <v>0.007894736842105263</v>
+        <v>7.8947368421052634E-3</v>
       </c>
       <c r="J32">
         <v>792.8404205327123</v>
       </c>
       <c r="K32">
-        <v>785.1073255109659</v>
+        <v>785.10732551096589</v>
       </c>
       <c r="L32">
-        <v>823.9083444016211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>823.90834440162109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>42978</v>
       </c>
@@ -1671,7 +3289,7 @@
         <v>162.16</v>
       </c>
       <c r="F33">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1680,19 +3298,19 @@
         <v>0.1125</v>
       </c>
       <c r="I33">
-        <v>0.004175365344467641</v>
+        <v>4.1753653444676414E-3</v>
       </c>
       <c r="J33">
         <v>324.390602715022</v>
       </c>
       <c r="K33">
-        <v>327.3315692207128</v>
+        <v>327.33156922071282</v>
       </c>
       <c r="L33">
-        <v>317.7252365215224</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>317.72523652152239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43008</v>
       </c>
@@ -1709,7 +3327,7 @@
         <v>333.64</v>
       </c>
       <c r="F34">
-        <v>0.08749999999999999</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1718,19 +3336,19 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0.002557544757033248</v>
+        <v>2.5575447570332479E-3</v>
       </c>
       <c r="J34">
-        <v>283.8786867861303</v>
+        <v>283.87868678613029</v>
       </c>
       <c r="K34">
         <v>297.7820240857925</v>
       </c>
       <c r="L34">
-        <v>468.2955938853382</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>468.29559388533818</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43039</v>
       </c>
@@ -1747,7 +3365,7 @@
         <v>255.4</v>
       </c>
       <c r="F35">
-        <v>0.038</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="G35">
         <v>0.04</v>
@@ -1756,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0.01533742331288344</v>
+        <v>1.5337423312883441E-2</v>
       </c>
       <c r="J35">
         <v>1197.242084664987</v>
@@ -1765,10 +3383,10 @@
         <v>1195.410614410265</v>
       </c>
       <c r="L35">
-        <v>1207.184890590694</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>1207.1848905906941</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43069</v>
       </c>
@@ -1791,22 +3409,22 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="I36">
-        <v>0.005420054200542005</v>
+        <v>5.4200542005420054E-3</v>
       </c>
       <c r="J36">
-        <v>444.7563301227934</v>
+        <v>444.75633012279337</v>
       </c>
       <c r="K36">
-        <v>254.9695944410122</v>
+        <v>254.96959444101219</v>
       </c>
       <c r="L36">
-        <v>386.103340804557</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>386.10334080455698</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43100</v>
       </c>
@@ -1820,31 +3438,31 @@
         <v>27.1</v>
       </c>
       <c r="E37">
-        <v>972.5199999999999</v>
+        <v>972.51999999999987</v>
       </c>
       <c r="F37">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G37">
-        <v>0.064</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H37">
-        <v>0.064</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="I37">
-        <v>0.007481296758104738</v>
+        <v>7.481296758104738E-3</v>
       </c>
       <c r="J37">
-        <v>398.0952333658462</v>
+        <v>398.09523336584618</v>
       </c>
       <c r="K37">
-        <v>407.9391185462705</v>
+        <v>407.93911854627049</v>
       </c>
       <c r="L37">
-        <v>352.5076164663457</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>352.50761646634572</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43131</v>
       </c>
@@ -1858,10 +3476,10 @@
         <v>26.46</v>
       </c>
       <c r="E38">
-        <v>820.1799999999999</v>
+        <v>820.18</v>
       </c>
       <c r="F38">
-        <v>0.0825</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1870,19 +3488,19 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0.0124223602484472</v>
+        <v>1.2422360248447201E-2</v>
       </c>
       <c r="J38">
-        <v>343.2266555305515</v>
+        <v>343.22665553055151</v>
       </c>
       <c r="K38">
         <v>338.2041588366377</v>
       </c>
       <c r="L38">
-        <v>371.1289711066154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>371.12897110661538</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43159</v>
       </c>
@@ -1899,16 +3517,16 @@
         <v>576.52</v>
       </c>
       <c r="F39">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G39">
-        <v>0.0375</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0.003144654088050315</v>
+        <v>3.1446540880503151E-3</v>
       </c>
       <c r="J39">
         <v>225.0610310826321</v>
@@ -1917,10 +3535,10 @@
         <v>240.051151878208</v>
       </c>
       <c r="L39">
-        <v>153.5043085227012</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>153.50430852270119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43190</v>
       </c>
@@ -1940,25 +3558,25 @@
         <v>0.05</v>
       </c>
       <c r="G40">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H40">
         <v>0.04</v>
       </c>
       <c r="I40">
-        <v>0.008571428571428572</v>
+        <v>8.5714285714285719E-3</v>
       </c>
       <c r="J40">
-        <v>445.0689016529665</v>
+        <v>445.06890165296647</v>
       </c>
       <c r="K40">
-        <v>465.8598025441812</v>
+        <v>465.85980254418121</v>
       </c>
       <c r="L40">
-        <v>341.6882473518611</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>341.68824735186109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43220</v>
       </c>
@@ -1975,28 +3593,28 @@
         <v>185.56</v>
       </c>
       <c r="F41">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0.08599999999999999</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="I41">
-        <v>0.008771929824561403</v>
+        <v>8.771929824561403E-3</v>
       </c>
       <c r="J41">
-        <v>337.6045467788173</v>
+        <v>337.60454677881728</v>
       </c>
       <c r="K41">
-        <v>331.2609328317944</v>
+        <v>331.26093283179438</v>
       </c>
       <c r="L41">
-        <v>366.2949814723887</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>366.29498147238871</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43251</v>
       </c>
@@ -2013,7 +3631,7 @@
         <v>178.56</v>
       </c>
       <c r="F42">
-        <v>0.0475</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2025,16 +3643,16 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>176.9041928128069</v>
+        <v>176.90419281280691</v>
       </c>
       <c r="K42">
-        <v>161.2134769927632</v>
+        <v>161.21347699276319</v>
       </c>
       <c r="L42">
         <v>250.0792343241875</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43281</v>
       </c>
@@ -2051,28 +3669,28 @@
         <v>201</v>
       </c>
       <c r="F43">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="G43">
-        <v>0.0675</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="H43">
-        <v>0.0325</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="I43">
-        <v>0.01955307262569832</v>
+        <v>1.9553072625698321E-2</v>
       </c>
       <c r="J43">
-        <v>682.8673859060615</v>
+        <v>682.86738590606149</v>
       </c>
       <c r="K43">
-        <v>691.6248077195477</v>
+        <v>691.62480771954768</v>
       </c>
       <c r="L43">
-        <v>653.5134715086937</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>653.51347150869367</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43312</v>
       </c>
@@ -2089,28 +3707,28 @@
         <v>206.42</v>
       </c>
       <c r="F44">
-        <v>0.05400000000000001</v>
+        <v>5.4000000000000013E-2</v>
       </c>
       <c r="G44">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H44">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="I44">
-        <v>0.01330798479087452</v>
+        <v>1.3307984790874521E-2</v>
       </c>
       <c r="J44">
-        <v>868.7519418491735</v>
+        <v>868.75194184917348</v>
       </c>
       <c r="K44">
-        <v>873.5086617894844</v>
+        <v>873.50866178948445</v>
       </c>
       <c r="L44">
-        <v>847.9667350883864</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>847.96673508838637</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43343</v>
       </c>
@@ -2130,25 +3748,25 @@
         <v>0.1</v>
       </c>
       <c r="G45">
-        <v>0.0925</v>
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="H45">
         <v>0.105</v>
       </c>
       <c r="I45">
-        <v>0.001968503937007874</v>
+        <v>1.968503937007874E-3</v>
       </c>
       <c r="J45">
-        <v>548.9082574501072</v>
+        <v>548.90825745010716</v>
       </c>
       <c r="K45">
-        <v>557.7366664184395</v>
+        <v>557.73666641843954</v>
       </c>
       <c r="L45">
-        <v>508.367898905077</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>508.36789890507703</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43373</v>
       </c>
@@ -2168,30 +3786,30 @@
         <v>0.05</v>
       </c>
       <c r="G46">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H46">
-        <v>0.116</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="I46">
-        <v>0.003264094955489614</v>
+        <v>3.264094955489614E-3</v>
       </c>
       <c r="J46">
-        <v>-174.6574280537195</v>
+        <v>-174.65742805371951</v>
       </c>
       <c r="K46">
         <v>-330.7008814962565</v>
       </c>
       <c r="L46">
-        <v>1683.857255271516</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>1683.8572552715159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43404</v>
       </c>
       <c r="B47">
-        <v>374.5833333333334</v>
+        <v>374.58333333333343</v>
       </c>
       <c r="C47">
         <v>2.083333333333333</v>
@@ -2206,25 +3824,25 @@
         <v>0.05</v>
       </c>
       <c r="G47">
-        <v>0.0925</v>
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="H47">
-        <v>0.08749999999999999</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="I47">
-        <v>0.005561735261401557</v>
+        <v>5.5617352614015566E-3</v>
       </c>
       <c r="J47">
-        <v>3740.888520883745</v>
+        <v>3740.8885208837451</v>
       </c>
       <c r="K47">
-        <v>3781.329466662188</v>
+        <v>3781.3294666621882</v>
       </c>
       <c r="L47">
-        <v>3516.213424666662</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>3516.2134246666619</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43434</v>
       </c>
@@ -2241,28 +3859,28 @@
         <v>367.7</v>
       </c>
       <c r="F48">
-        <v>0.095</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G48">
-        <v>0.1175</v>
+        <v>0.11749999999999999</v>
       </c>
       <c r="H48">
-        <v>0.08500000000000001</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="I48">
-        <v>0.004891304347826087</v>
+        <v>4.8913043478260873E-3</v>
       </c>
       <c r="J48">
-        <v>497.8260655601667</v>
+        <v>497.82606556016668</v>
       </c>
       <c r="K48">
-        <v>293.0408465295537</v>
+        <v>293.04084652955368</v>
       </c>
       <c r="L48">
-        <v>374.5833333333334</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>374.58333333333343</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43465</v>
       </c>
@@ -2282,13 +3900,13 @@
         <v>0.08</v>
       </c>
       <c r="G49">
-        <v>0.094</v>
+        <v>9.4E-2</v>
       </c>
       <c r="H49">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="I49">
-        <v>0.004908835904628331</v>
+        <v>4.9088359046283309E-3</v>
       </c>
       <c r="J49">
         <v>1564.907432881158</v>
@@ -2298,6 +3916,2441 @@
       </c>
       <c r="L49">
         <v>1531.605836362563</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:Q46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>42125</v>
+      </c>
+      <c r="C3">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>-41.083250586633547</v>
+      </c>
+      <c r="F3">
+        <f>IF(E3&lt;0,0,E3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>-48.788728109351347</v>
+      </c>
+      <c r="H3">
+        <f>IF(G3&lt;0,0,G3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>5.9906635372675074</v>
+      </c>
+      <c r="J3">
+        <f>IF(I3&lt;0,0,I3)</f>
+        <v>5.9906635372675074</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="str">
+        <f>CONCATENATE(K3,L3,TEXT(A3,"mmm-yy"),L3)</f>
+        <v>"May-15"</v>
+      </c>
+      <c r="N3" t="str">
+        <f>CONCATENATE(K3,L3,TEXT(C3,"##"),L3)</f>
+        <v>"26"</v>
+      </c>
+      <c r="O3" t="str">
+        <f>CONCATENATE(K3,L3,TEXT(F3,"##"),L3)</f>
+        <v>""</v>
+      </c>
+      <c r="P3" t="str">
+        <f>CONCATENATE(K3,L3,TEXT(H3,"##"),L3)</f>
+        <v>""</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>CONCATENATE(K3,L3,TEXT(J3,"##"),L3)</f>
+        <v>"6"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>42156</v>
+      </c>
+      <c r="C4">
+        <v>162</v>
+      </c>
+      <c r="E4">
+        <v>98.320892253878071</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:H46" si="0">IF(E4&lt;0,0,E4)</f>
+        <v>98.320892253878071</v>
+      </c>
+      <c r="G4">
+        <v>98.512268527236216</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>98.512268527236216</v>
+      </c>
+      <c r="I4">
+        <v>95.555926823370342</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4" si="1">IF(I4&lt;0,0,I4)</f>
+        <v>95.555926823370342</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M46" si="2">CONCATENATE(K4,L4,TEXT(A4,"mmm-yy"),L4)</f>
+        <v>,"Jun-15"</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N43" si="3">CONCATENATE(K4,L4,TEXT(C4,"##"),L4)</f>
+        <v>,"162"</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O46" si="4">CONCATENATE(K4,L4,TEXT(F4,"##"),L4)</f>
+        <v>,"98"</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" ref="P4:P46" si="5">CONCATENATE(K4,L4,TEXT(H4,"##"),L4)</f>
+        <v>,"99"</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" ref="Q4:Q46" si="6">CONCATENATE(K4,L4,TEXT(J4,"##"),L4)</f>
+        <v>,"96"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>42186</v>
+      </c>
+      <c r="C5">
+        <v>290</v>
+      </c>
+      <c r="E5">
+        <v>368.9153098011206</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>368.9153098011206</v>
+      </c>
+      <c r="G5">
+        <v>366.4102365034646</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>366.4102365034646</v>
+      </c>
+      <c r="I5">
+        <v>382.20834102487601</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5" si="7">IF(I5&lt;0,0,I5)</f>
+        <v>382.20834102487601</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Jul-15"</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="3"/>
+        <v>,"290"</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="4"/>
+        <v>,"369"</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="5"/>
+        <v>,"366"</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="6"/>
+        <v>,"382"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>42217</v>
+      </c>
+      <c r="C6">
+        <v>110</v>
+      </c>
+      <c r="E6">
+        <v>-15.745744068532289</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1.8034725473652651</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1.8034725473652651</v>
+      </c>
+      <c r="I6">
+        <v>-58.340146789749703</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6" si="8">IF(I6&lt;0,0,I6)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Aug-15"</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="3"/>
+        <v>,"110"</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="4"/>
+        <v>,""</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="5"/>
+        <v>,"2"</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="6"/>
+        <v>,""</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>42248</v>
+      </c>
+      <c r="C7">
+        <v>129</v>
+      </c>
+      <c r="E7">
+        <v>136.09004235224239</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>136.09004235224239</v>
+      </c>
+      <c r="G7">
+        <v>129.00405516243239</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>129.00405516243239</v>
+      </c>
+      <c r="I7">
+        <v>215.08866336993091</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7" si="9">IF(I7&lt;0,0,I7)</f>
+        <v>215.08866336993091</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Sep-15"</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="3"/>
+        <v>,"129"</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="4"/>
+        <v>,"136"</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="5"/>
+        <v>,"129"</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="6"/>
+        <v>,"215"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>42278</v>
+      </c>
+      <c r="C8">
+        <v>443</v>
+      </c>
+      <c r="E8">
+        <v>416.07358505100899</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>416.07358505100899</v>
+      </c>
+      <c r="G8">
+        <v>420.55336132614627</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>420.55336132614627</v>
+      </c>
+      <c r="I8">
+        <v>395.15534142138989</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8" si="10">IF(I8&lt;0,0,I8)</f>
+        <v>395.15534142138989</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Oct-15"</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="3"/>
+        <v>,"443"</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="4"/>
+        <v>,"416"</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="5"/>
+        <v>,"421"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="6"/>
+        <v>,"395"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>42309</v>
+      </c>
+      <c r="C9">
+        <v>295</v>
+      </c>
+      <c r="E9">
+        <v>430.184632747178</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>430.184632747178</v>
+      </c>
+      <c r="G9">
+        <v>176.2434897907369</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>176.2434897907369</v>
+      </c>
+      <c r="I9">
+        <v>352.25092032577118</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9" si="11">IF(I9&lt;0,0,I9)</f>
+        <v>352.25092032577118</v>
+      </c>
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Nov-15"</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="3"/>
+        <v>,"295"</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="4"/>
+        <v>,"430"</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="5"/>
+        <v>,"176"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="6"/>
+        <v>,"352"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>42339</v>
+      </c>
+      <c r="C10">
+        <v>84</v>
+      </c>
+      <c r="E10">
+        <v>357.37166536316948</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>357.37166536316948</v>
+      </c>
+      <c r="G10">
+        <v>355.74745947587928</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>355.74745947587928</v>
+      </c>
+      <c r="I10">
+        <v>357.62859736187801</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10" si="12">IF(I10&lt;0,0,I10)</f>
+        <v>357.62859736187801</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Dec-15"</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="3"/>
+        <v>,"84"</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="4"/>
+        <v>,"357"</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="5"/>
+        <v>,"356"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="6"/>
+        <v>,"358"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>42370</v>
+      </c>
+      <c r="C11">
+        <v>189</v>
+      </c>
+      <c r="E11">
+        <v>89.802116159190263</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>89.802116159190263</v>
+      </c>
+      <c r="G11">
+        <v>94.957214237982598</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>94.957214237982598</v>
+      </c>
+      <c r="I11">
+        <v>66.948931387292461</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11" si="13">IF(I11&lt;0,0,I11)</f>
+        <v>66.948931387292461</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Jan-16"</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="3"/>
+        <v>,"189"</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="4"/>
+        <v>,"90"</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="5"/>
+        <v>,"95"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="6"/>
+        <v>,"67"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>42401</v>
+      </c>
+      <c r="C12">
+        <v>276</v>
+      </c>
+      <c r="E12">
+        <v>301.42807046281342</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>301.42807046281342</v>
+      </c>
+      <c r="G12">
+        <v>313.82694250201757</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>313.82694250201757</v>
+      </c>
+      <c r="I12">
+        <v>235.81222277387829</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12" si="14">IF(I12&lt;0,0,I12)</f>
+        <v>235.81222277387829</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Feb-16"</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="3"/>
+        <v>,"276"</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="4"/>
+        <v>,"301"</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="5"/>
+        <v>,"314"</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="6"/>
+        <v>,"236"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>42430</v>
+      </c>
+      <c r="C13">
+        <v>391</v>
+      </c>
+      <c r="E13">
+        <v>309.92199406912113</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>309.92199406912113</v>
+      </c>
+      <c r="G13">
+        <v>320.87318389120338</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>320.87318389120338</v>
+      </c>
+      <c r="I13">
+        <v>259.03832099994099</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13" si="15">IF(I13&lt;0,0,I13)</f>
+        <v>259.03832099994099</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Mar-16"</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="3"/>
+        <v>,"391"</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="4"/>
+        <v>,"310"</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="5"/>
+        <v>,"321"</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="6"/>
+        <v>,"259"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>42461</v>
+      </c>
+      <c r="C14">
+        <v>612</v>
+      </c>
+      <c r="E14">
+        <v>564.29586873736378</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>564.29586873736378</v>
+      </c>
+      <c r="G14">
+        <v>568.8988256887817</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>568.8988256887817</v>
+      </c>
+      <c r="I14">
+        <v>525.70828397774153</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14" si="16">IF(I14&lt;0,0,I14)</f>
+        <v>525.70828397774153</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Apr-16"</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="3"/>
+        <v>,"612"</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="4"/>
+        <v>,"564"</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="5"/>
+        <v>,"569"</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="6"/>
+        <v>,"526"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>42491</v>
+      </c>
+      <c r="C15">
+        <v>197</v>
+      </c>
+      <c r="E15">
+        <v>64.414879954859998</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>64.414879954859998</v>
+      </c>
+      <c r="G15">
+        <v>-6.5615494723728984</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>429.64519019699389</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15" si="17">IF(I15&lt;0,0,I15)</f>
+        <v>429.64519019699389</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v>,"May-16"</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="3"/>
+        <v>,"197"</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="4"/>
+        <v>,"64"</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="5"/>
+        <v>,""</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="6"/>
+        <v>,"430"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>42522</v>
+      </c>
+      <c r="C16">
+        <v>202</v>
+      </c>
+      <c r="E16">
+        <v>542.90561684275644</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>542.90561684275644</v>
+      </c>
+      <c r="G16">
+        <v>539.3172344896609</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>539.3172344896609</v>
+      </c>
+      <c r="I16">
+        <v>565.5321238589197</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16" si="18">IF(I16&lt;0,0,I16)</f>
+        <v>565.5321238589197</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Jun-16"</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="3"/>
+        <v>,"202"</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="4"/>
+        <v>,"543"</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="5"/>
+        <v>,"539"</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="6"/>
+        <v>,"566"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>42552</v>
+      </c>
+      <c r="C17">
+        <v>864</v>
+      </c>
+      <c r="E17">
+        <v>504.17696786878253</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>504.17696786878253</v>
+      </c>
+      <c r="G17">
+        <v>512.19739657434366</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>512.19739657434366</v>
+      </c>
+      <c r="I17">
+        <v>467.92860131662229</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17" si="19">IF(I17&lt;0,0,I17)</f>
+        <v>467.92860131662229</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Jul-16"</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="3"/>
+        <v>,"864"</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="4"/>
+        <v>,"504"</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="5"/>
+        <v>,"512"</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="6"/>
+        <v>,"468"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>42583</v>
+      </c>
+      <c r="C18">
+        <v>749</v>
+      </c>
+      <c r="E18">
+        <v>660.78383076182376</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>660.78383076182376</v>
+      </c>
+      <c r="G18">
+        <v>675.84651469449295</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>675.84651469449295</v>
+      </c>
+      <c r="I18">
+        <v>617.82100676594166</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18" si="20">IF(I18&lt;0,0,I18)</f>
+        <v>617.82100676594166</v>
+      </c>
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Aug-16"</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="3"/>
+        <v>,"749"</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="4"/>
+        <v>,"661"</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="5"/>
+        <v>,"676"</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="6"/>
+        <v>,"618"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>42614</v>
+      </c>
+      <c r="C19">
+        <v>379</v>
+      </c>
+      <c r="E19">
+        <v>498.22610383249628</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>498.22610383249628</v>
+      </c>
+      <c r="G19">
+        <v>524.73494326989066</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>524.73494326989066</v>
+      </c>
+      <c r="I19">
+        <v>760.15880331229175</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19" si="21">IF(I19&lt;0,0,I19)</f>
+        <v>760.15880331229175</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Sep-16"</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="3"/>
+        <v>,"379"</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="4"/>
+        <v>,"498"</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="5"/>
+        <v>,"525"</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="6"/>
+        <v>,"760"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>42644</v>
+      </c>
+      <c r="C20">
+        <v>1919</v>
+      </c>
+      <c r="E20">
+        <v>1153.60619250025</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1153.60619250025</v>
+      </c>
+      <c r="G20">
+        <v>1142.219940706746</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>1142.219940706746</v>
+      </c>
+      <c r="I20">
+        <v>1205.4260120984959</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20" si="22">IF(I20&lt;0,0,I20)</f>
+        <v>1205.4260120984959</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Oct-16"</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="3"/>
+        <v>,"1919"</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="4"/>
+        <v>,"1154"</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="5"/>
+        <v>,"1142"</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="6"/>
+        <v>,"1205"</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>42675</v>
+      </c>
+      <c r="C21">
+        <v>125</v>
+      </c>
+      <c r="E21">
+        <v>2393.1461760108091</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>2393.1461760108091</v>
+      </c>
+      <c r="G21">
+        <v>1310.673160758651</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>1310.673160758651</v>
+      </c>
+      <c r="I21">
+        <v>1922.573722222344</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21" si="23">IF(I21&lt;0,0,I21)</f>
+        <v>1922.573722222344</v>
+      </c>
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Nov-16"</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="3"/>
+        <v>,"125"</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="4"/>
+        <v>,"2393"</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="5"/>
+        <v>,"1311"</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="6"/>
+        <v>,"1923"</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>42705</v>
+      </c>
+      <c r="C22">
+        <v>262.5</v>
+      </c>
+      <c r="E22">
+        <v>199.1376526881871</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>199.1376526881871</v>
+      </c>
+      <c r="G22">
+        <v>206.4286630514444</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>206.4286630514444</v>
+      </c>
+      <c r="I22">
+        <v>159.68503199122739</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22" si="24">IF(I22&lt;0,0,I22)</f>
+        <v>159.68503199122739</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Dec-16"</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="3"/>
+        <v>,"263"</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="4"/>
+        <v>,"199"</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="5"/>
+        <v>,"206"</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="6"/>
+        <v>,"160"</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>42736</v>
+      </c>
+      <c r="C23">
+        <v>292</v>
+      </c>
+      <c r="E23">
+        <v>284.68461467943803</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>284.68461467943803</v>
+      </c>
+      <c r="G23">
+        <v>305.7145673858447</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>305.7145673858447</v>
+      </c>
+      <c r="I23">
+        <v>191.61683059510909</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23" si="25">IF(I23&lt;0,0,I23)</f>
+        <v>191.61683059510909</v>
+      </c>
+      <c r="K23" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Jan-17"</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="3"/>
+        <v>,"292"</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="4"/>
+        <v>,"285"</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="5"/>
+        <v>,"306"</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="6"/>
+        <v>,"192"</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>42767</v>
+      </c>
+      <c r="C24">
+        <v>440</v>
+      </c>
+      <c r="E24">
+        <v>272.07733449810348</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>272.07733449810348</v>
+      </c>
+      <c r="G24">
+        <v>265.43361387389427</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>265.43361387389427</v>
+      </c>
+      <c r="I24">
+        <v>302.87573620557151</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24" si="26">IF(I24&lt;0,0,I24)</f>
+        <v>302.87573620557151</v>
+      </c>
+      <c r="K24" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Feb-17"</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="3"/>
+        <v>,"440"</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="4"/>
+        <v>,"272"</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="5"/>
+        <v>,"265"</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="6"/>
+        <v>,"303"</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>42795</v>
+      </c>
+      <c r="C25">
+        <v>424</v>
+      </c>
+      <c r="E25">
+        <v>729.0112353725599</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>729.0112353725599</v>
+      </c>
+      <c r="G25">
+        <v>773.59111206968964</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>773.59111206968964</v>
+      </c>
+      <c r="I25">
+        <v>505.55238260892372</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25" si="27">IF(I25&lt;0,0,I25)</f>
+        <v>505.55238260892372</v>
+      </c>
+      <c r="K25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Mar-17"</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="3"/>
+        <v>,"424"</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="4"/>
+        <v>,"729"</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="5"/>
+        <v>,"774"</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="6"/>
+        <v>,"506"</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>42826</v>
+      </c>
+      <c r="C26">
+        <v>306</v>
+      </c>
+      <c r="E26">
+        <v>496.48555722474299</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>496.48555722474299</v>
+      </c>
+      <c r="G26">
+        <v>500.49111690810162</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>500.49111690810162</v>
+      </c>
+      <c r="I26">
+        <v>471.37649470372207</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26" si="28">IF(I26&lt;0,0,I26)</f>
+        <v>471.37649470372207</v>
+      </c>
+      <c r="K26" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Apr-17"</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="3"/>
+        <v>,"306"</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="4"/>
+        <v>,"496"</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="5"/>
+        <v>,"500"</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="6"/>
+        <v>,"471"</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>42856</v>
+      </c>
+      <c r="C27">
+        <v>158</v>
+      </c>
+      <c r="E27">
+        <v>171.894393691435</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>171.894393691435</v>
+      </c>
+      <c r="G27">
+        <v>153.6701598753165</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>153.6701598753165</v>
+      </c>
+      <c r="I27">
+        <v>264.97016779432357</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ref="J27" si="29">IF(I27&lt;0,0,I27)</f>
+        <v>264.97016779432357</v>
+      </c>
+      <c r="K27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="2"/>
+        <v>,"May-17"</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="3"/>
+        <v>,"158"</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="4"/>
+        <v>,"172"</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="5"/>
+        <v>,"154"</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="6"/>
+        <v>,"265"</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>42887</v>
+      </c>
+      <c r="C28">
+        <v>319</v>
+      </c>
+      <c r="E28">
+        <v>432.5563517602011</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>432.5563517602011</v>
+      </c>
+      <c r="G28">
+        <v>434.27136480627138</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>434.27136480627138</v>
+      </c>
+      <c r="I28">
+        <v>431.21168623259109</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ref="J28" si="30">IF(I28&lt;0,0,I28)</f>
+        <v>431.21168623259109</v>
+      </c>
+      <c r="K28" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Jun-17"</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="3"/>
+        <v>,"319"</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="4"/>
+        <v>,"433"</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="5"/>
+        <v>,"434"</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="6"/>
+        <v>,"431"</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>42917</v>
+      </c>
+      <c r="C29">
+        <v>380</v>
+      </c>
+      <c r="E29">
+        <v>792.8404205327123</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>792.8404205327123</v>
+      </c>
+      <c r="G29">
+        <v>785.10732551096589</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>785.10732551096589</v>
+      </c>
+      <c r="I29">
+        <v>823.90834440162109</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29" si="31">IF(I29&lt;0,0,I29)</f>
+        <v>823.90834440162109</v>
+      </c>
+      <c r="K29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Jul-17"</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="3"/>
+        <v>,"380"</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="4"/>
+        <v>,"793"</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="5"/>
+        <v>,"785"</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="6"/>
+        <v>,"824"</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>42948</v>
+      </c>
+      <c r="C30">
+        <v>479</v>
+      </c>
+      <c r="E30">
+        <v>324.390602715022</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>324.390602715022</v>
+      </c>
+      <c r="G30">
+        <v>327.33156922071282</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>327.33156922071282</v>
+      </c>
+      <c r="I30">
+        <v>317.72523652152239</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30" si="32">IF(I30&lt;0,0,I30)</f>
+        <v>317.72523652152239</v>
+      </c>
+      <c r="K30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Aug-17"</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="3"/>
+        <v>,"479"</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="4"/>
+        <v>,"324"</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="5"/>
+        <v>,"327"</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="6"/>
+        <v>,"318"</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>42979</v>
+      </c>
+      <c r="C31">
+        <v>391</v>
+      </c>
+      <c r="E31">
+        <v>283.87868678613029</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>283.87868678613029</v>
+      </c>
+      <c r="G31">
+        <v>297.7820240857925</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>297.7820240857925</v>
+      </c>
+      <c r="I31">
+        <v>468.29559388533818</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ref="J31" si="33">IF(I31&lt;0,0,I31)</f>
+        <v>468.29559388533818</v>
+      </c>
+      <c r="K31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Sep-17"</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="3"/>
+        <v>,"391"</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="4"/>
+        <v>,"284"</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="5"/>
+        <v>,"298"</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="6"/>
+        <v>,"468"</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>43009</v>
+      </c>
+      <c r="C32">
+        <v>326</v>
+      </c>
+      <c r="E32">
+        <v>1197.242084664987</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>1197.242084664987</v>
+      </c>
+      <c r="G32">
+        <v>1195.410614410265</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>1195.410614410265</v>
+      </c>
+      <c r="I32">
+        <v>1207.1848905906941</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ref="J32" si="34">IF(I32&lt;0,0,I32)</f>
+        <v>1207.1848905906941</v>
+      </c>
+      <c r="K32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Oct-17"</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="3"/>
+        <v>,"326"</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="4"/>
+        <v>,"1197"</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="5"/>
+        <v>,"1195"</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="6"/>
+        <v>,"1207"</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>43040</v>
+      </c>
+      <c r="C33">
+        <v>369</v>
+      </c>
+      <c r="E33">
+        <v>444.75633012279337</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>444.75633012279337</v>
+      </c>
+      <c r="G33">
+        <v>254.96959444101219</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>254.96959444101219</v>
+      </c>
+      <c r="I33">
+        <v>386.10334080455698</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ref="J33" si="35">IF(I33&lt;0,0,I33)</f>
+        <v>386.10334080455698</v>
+      </c>
+      <c r="K33" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Nov-17"</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="3"/>
+        <v>,"369"</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="4"/>
+        <v>,"445"</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="5"/>
+        <v>,"255"</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="6"/>
+        <v>,"386"</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>43070</v>
+      </c>
+      <c r="C34">
+        <v>401</v>
+      </c>
+      <c r="E34">
+        <v>398.09523336584618</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>398.09523336584618</v>
+      </c>
+      <c r="G34">
+        <v>407.93911854627049</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>407.93911854627049</v>
+      </c>
+      <c r="I34">
+        <v>352.50761646634572</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ref="J34" si="36">IF(I34&lt;0,0,I34)</f>
+        <v>352.50761646634572</v>
+      </c>
+      <c r="K34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Dec-17"</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="3"/>
+        <v>,"401"</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="4"/>
+        <v>,"398"</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="5"/>
+        <v>,"408"</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="6"/>
+        <v>,"353"</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>43101</v>
+      </c>
+      <c r="C35">
+        <v>161</v>
+      </c>
+      <c r="E35">
+        <v>343.22665553055151</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>343.22665553055151</v>
+      </c>
+      <c r="G35">
+        <v>338.2041588366377</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>338.2041588366377</v>
+      </c>
+      <c r="I35">
+        <v>371.12897110661538</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35" si="37">IF(I35&lt;0,0,I35)</f>
+        <v>371.12897110661538</v>
+      </c>
+      <c r="K35" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" t="s">
+        <v>34</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Jan-18"</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="3"/>
+        <v>,"161"</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="4"/>
+        <v>,"343"</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="5"/>
+        <v>,"338"</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="6"/>
+        <v>,"371"</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>43132</v>
+      </c>
+      <c r="C36">
+        <v>318</v>
+      </c>
+      <c r="E36">
+        <v>225.0610310826321</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>225.0610310826321</v>
+      </c>
+      <c r="G36">
+        <v>240.051151878208</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>240.051151878208</v>
+      </c>
+      <c r="I36">
+        <v>153.50430852270119</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ref="J36" si="38">IF(I36&lt;0,0,I36)</f>
+        <v>153.50430852270119</v>
+      </c>
+      <c r="K36" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Feb-18"</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="3"/>
+        <v>,"318"</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="4"/>
+        <v>,"225"</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="5"/>
+        <v>,"240"</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="6"/>
+        <v>,"154"</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>43160</v>
+      </c>
+      <c r="C37">
+        <v>350</v>
+      </c>
+      <c r="E37">
+        <v>445.06890165296647</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>445.06890165296647</v>
+      </c>
+      <c r="G37">
+        <v>465.85980254418121</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>465.85980254418121</v>
+      </c>
+      <c r="I37">
+        <v>341.68824735186109</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ref="J37" si="39">IF(I37&lt;0,0,I37)</f>
+        <v>341.68824735186109</v>
+      </c>
+      <c r="K37" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" t="s">
+        <v>34</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Mar-18"</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="3"/>
+        <v>,"350"</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="4"/>
+        <v>,"445"</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="5"/>
+        <v>,"466"</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="6"/>
+        <v>,"342"</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>43191</v>
+      </c>
+      <c r="C38">
+        <v>228</v>
+      </c>
+      <c r="E38">
+        <v>337.60454677881728</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>337.60454677881728</v>
+      </c>
+      <c r="G38">
+        <v>331.26093283179438</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>331.26093283179438</v>
+      </c>
+      <c r="I38">
+        <v>366.29498147238871</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ref="J38" si="40">IF(I38&lt;0,0,I38)</f>
+        <v>366.29498147238871</v>
+      </c>
+      <c r="K38" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" t="s">
+        <v>34</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Apr-18"</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="3"/>
+        <v>,"228"</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="4"/>
+        <v>,"338"</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="5"/>
+        <v>,"331"</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="6"/>
+        <v>,"366"</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>43221</v>
+      </c>
+      <c r="C39">
+        <v>246</v>
+      </c>
+      <c r="E39">
+        <v>176.90419281280691</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>176.90419281280691</v>
+      </c>
+      <c r="G39">
+        <v>161.21347699276319</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>161.21347699276319</v>
+      </c>
+      <c r="I39">
+        <v>250.0792343241875</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ref="J39" si="41">IF(I39&lt;0,0,I39)</f>
+        <v>250.0792343241875</v>
+      </c>
+      <c r="K39" t="s">
+        <v>35</v>
+      </c>
+      <c r="L39" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="2"/>
+        <v>,"May-18"</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="3"/>
+        <v>,"246"</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="4"/>
+        <v>,"177"</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="5"/>
+        <v>,"161"</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="6"/>
+        <v>,"250"</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>43252</v>
+      </c>
+      <c r="C40">
+        <v>358</v>
+      </c>
+      <c r="E40">
+        <v>682.86738590606149</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>682.86738590606149</v>
+      </c>
+      <c r="G40">
+        <v>691.62480771954768</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>691.62480771954768</v>
+      </c>
+      <c r="I40">
+        <v>653.51347150869367</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ref="J40" si="42">IF(I40&lt;0,0,I40)</f>
+        <v>653.51347150869367</v>
+      </c>
+      <c r="K40" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Jun-18"</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="3"/>
+        <v>,"358"</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="4"/>
+        <v>,"683"</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="5"/>
+        <v>,"692"</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="6"/>
+        <v>,"654"</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>43282</v>
+      </c>
+      <c r="C41">
+        <v>526</v>
+      </c>
+      <c r="E41">
+        <v>868.75194184917348</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>868.75194184917348</v>
+      </c>
+      <c r="G41">
+        <v>873.50866178948445</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>873.50866178948445</v>
+      </c>
+      <c r="I41">
+        <v>847.96673508838637</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ref="J41" si="43">IF(I41&lt;0,0,I41)</f>
+        <v>847.96673508838637</v>
+      </c>
+      <c r="K41" t="s">
+        <v>35</v>
+      </c>
+      <c r="L41" t="s">
+        <v>34</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Jul-18"</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="3"/>
+        <v>,"526"</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="4"/>
+        <v>,"869"</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="5"/>
+        <v>,"874"</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="6"/>
+        <v>,"848"</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>43313</v>
+      </c>
+      <c r="C42">
+        <v>2032</v>
+      </c>
+      <c r="E42">
+        <v>548.90825745010716</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>548.90825745010716</v>
+      </c>
+      <c r="G42">
+        <v>557.73666641843954</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>557.73666641843954</v>
+      </c>
+      <c r="I42">
+        <v>508.36789890507703</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ref="J42" si="44">IF(I42&lt;0,0,I42)</f>
+        <v>508.36789890507703</v>
+      </c>
+      <c r="K42" t="s">
+        <v>35</v>
+      </c>
+      <c r="L42" t="s">
+        <v>34</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Aug-18"</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="3"/>
+        <v>,"2032"</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="4"/>
+        <v>,"549"</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="5"/>
+        <v>,"558"</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="6"/>
+        <v>,"508"</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>43344</v>
+      </c>
+      <c r="C43">
+        <v>1053.125</v>
+      </c>
+      <c r="E43">
+        <v>-174.65742805371951</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>-330.7008814962565</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>1683.8572552715159</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ref="J43" si="45">IF(I43&lt;0,0,I43)</f>
+        <v>1683.8572552715159</v>
+      </c>
+      <c r="K43" t="s">
+        <v>35</v>
+      </c>
+      <c r="L43" t="s">
+        <v>34</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Sep-18"</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="3"/>
+        <v>,"1053"</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="4"/>
+        <v>,""</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="5"/>
+        <v>,""</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="6"/>
+        <v>,"1684"</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>43374</v>
+      </c>
+      <c r="C44">
+        <v>374.58333333333343</v>
+      </c>
+      <c r="E44">
+        <v>3740.8885208837451</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>3740.8885208837451</v>
+      </c>
+      <c r="G44">
+        <v>3781.3294666621882</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>3781.3294666621882</v>
+      </c>
+      <c r="I44">
+        <v>3516.2134246666619</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ref="J44" si="46">IF(I44&lt;0,0,I44)</f>
+        <v>3516.2134246666619</v>
+      </c>
+      <c r="K44" t="s">
+        <v>35</v>
+      </c>
+      <c r="L44" t="s">
+        <v>34</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Oct-18"</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="4"/>
+        <v>,"3741"</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="5"/>
+        <v>,"3781"</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="6"/>
+        <v>,"3516"</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>43405</v>
+      </c>
+      <c r="C45">
+        <v>1840</v>
+      </c>
+      <c r="E45">
+        <v>497.82606556016668</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>497.82606556016668</v>
+      </c>
+      <c r="G45">
+        <v>293.04084652955368</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>293.04084652955368</v>
+      </c>
+      <c r="I45">
+        <v>374.58333333333343</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ref="J45" si="47">IF(I45&lt;0,0,I45)</f>
+        <v>374.58333333333343</v>
+      </c>
+      <c r="K45" t="s">
+        <v>35</v>
+      </c>
+      <c r="L45" t="s">
+        <v>34</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Nov-18"</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="4"/>
+        <v>,"498"</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="5"/>
+        <v>,"293"</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="6"/>
+        <v>,"375"</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>43435</v>
+      </c>
+      <c r="C46">
+        <v>1426</v>
+      </c>
+      <c r="E46">
+        <v>1564.907432881158</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>1564.907432881158</v>
+      </c>
+      <c r="G46">
+        <v>1579.532299938071</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>1579.532299938071</v>
+      </c>
+      <c r="I46">
+        <v>1531.605836362563</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ref="J46" si="48">IF(I46&lt;0,0,I46)</f>
+        <v>1531.605836362563</v>
+      </c>
+      <c r="K46" t="s">
+        <v>35</v>
+      </c>
+      <c r="L46" t="s">
+        <v>34</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Dec-18"</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="4"/>
+        <v>,"1565"</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="5"/>
+        <v>,"1580"</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="6"/>
+        <v>,"1532"</v>
       </c>
     </row>
   </sheetData>
@@ -2305,15 +6358,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2351,7 +6404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2365,34 +6418,34 @@
         <v>27</v>
       </c>
       <c r="E2">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F2">
-        <v>0.5694400115201551</v>
+        <v>0.56944001152015511</v>
       </c>
       <c r="G2">
-        <v>0.4700800141786524</v>
+        <v>0.47008001417865242</v>
       </c>
       <c r="H2">
-        <v>0.4631819065407198</v>
+        <v>0.46318190654071978</v>
       </c>
       <c r="I2">
-        <v>0.7653699310913287</v>
+        <v>0.76536993109132867</v>
       </c>
       <c r="J2">
-        <v>0.5915944788351555</v>
+        <v>0.59159447883515548</v>
       </c>
       <c r="K2">
-        <v>1.208645885642654</v>
+        <v>1.2086458856426541</v>
       </c>
       <c r="L2">
-        <v>2.904718167396115</v>
+        <v>2.9047181673961151</v>
       </c>
       <c r="M2">
-        <v>1.704323375241951</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>1.7043233752419511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2409,31 +6462,31 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="F3">
-        <v>0.5846330526475489</v>
+        <v>0.58463305264754895</v>
       </c>
       <c r="G3">
-        <v>0.4683303073888626</v>
+        <v>0.46833030738886261</v>
       </c>
       <c r="H3">
-        <v>0.3687770044236047</v>
+        <v>0.36877700442360473</v>
       </c>
       <c r="I3">
-        <v>0.6733037982743051</v>
+        <v>0.67330379827430509</v>
       </c>
       <c r="J3">
         <v>0.5528819608085227</v>
       </c>
       <c r="K3">
-        <v>1.26801163495558</v>
+        <v>1.2680116349555799</v>
       </c>
       <c r="L3">
-        <v>3.284625073010712</v>
+        <v>3.2846250730107118</v>
       </c>
       <c r="M3">
         <v>1.812353462493095</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2450,28 +6503,28 @@
         <v>0.75</v>
       </c>
       <c r="F4">
-        <v>0.5328530001754236</v>
+        <v>0.53285300017542359</v>
       </c>
       <c r="G4">
-        <v>0.4661177144861984</v>
+        <v>0.46611771448619838</v>
       </c>
       <c r="H4">
         <v>0.4682255706736822</v>
       </c>
       <c r="I4">
-        <v>0.5615697251257604</v>
+        <v>0.56156972512576042</v>
       </c>
       <c r="J4">
-        <v>0.6434713277354205</v>
+        <v>0.64347132773542048</v>
       </c>
       <c r="K4">
         <v>1.187101079029053</v>
       </c>
       <c r="L4">
-        <v>3.035130499678019</v>
+        <v>3.0351304996780191</v>
       </c>
       <c r="M4">
-        <v>1.742162592778877</v>
+        <v>1.7421625927788771</v>
       </c>
     </row>
   </sheetData>
